--- a/Tracking2/FINAL/NEEMSIS_tracking_2022_v6.xlsx
+++ b/Tracking2/FINAL/NEEMSIS_tracking_2022_v6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arnaud\Documents\GitHub\odriis\Tracking2\FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1957ED-BE9F-4D7F-8598-051623C17037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A25DE4D4-42D6-4894-A68E-288C8ED44098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="598" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20712,28 +20712,28 @@
     <t>${migsndecimig}=4</t>
   </si>
   <si>
-    <t>indexed-repeat(${migsnhelpmigname},${migsnhelpmigid}, 1,${migmigrationstep},1)</t>
-  </si>
-  <si>
-    <t>indexed-repeat(${migsnhelpmigname},${migsnhelpmigid}, 2,${migmigrationstep},1)</t>
-  </si>
-  <si>
-    <t>indexed-repeat(${migsnhelpmigname},${migsnhelpmigid}, 3,${migmigrationstep},1)</t>
-  </si>
-  <si>
-    <t>indexed-repeat(${migsnhelpmigname},${migsnhelpmigid}, 4,${migmigrationstep},1)</t>
-  </si>
-  <si>
-    <t>indexed-repeat(${migsnhelpmigname},${migsnhelpmigid}, 5,${migmigrationstep},1)</t>
-  </si>
-  <si>
-    <t>indexed-repeat(${migsnhelpmigname},${migsnhelpmigid}, 6,${migmigrationstep},1)</t>
-  </si>
-  <si>
-    <t>indexed-repeat(${migsnhelpmigname},${migsnhelpmigid}, 7,${migmigrationstep},1)</t>
-  </si>
-  <si>
-    <t>indexed-repeat(${migsnhelpmigname},${migsnhelpmigid}, index(),${migmigrationstep},index())</t>
+    <t>indexed-repeat(${migsnhelpmigname},${migsnhelpmigid}, 1)</t>
+  </si>
+  <si>
+    <t>indexed-repeat(${migsnhelpmigname},${migsnhelpmigid}, index())</t>
+  </si>
+  <si>
+    <t>indexed-repeat(${migsnhelpmigname},${migsnhelpmigid}, 2)</t>
+  </si>
+  <si>
+    <t>indexed-repeat(${migsnhelpmigname},${migsnhelpmigid}, 3)</t>
+  </si>
+  <si>
+    <t>indexed-repeat(${migsnhelpmigname},${migsnhelpmigid}, 4)</t>
+  </si>
+  <si>
+    <t>indexed-repeat(${migsnhelpmigname},${migsnhelpmigid}, 5)</t>
+  </si>
+  <si>
+    <t>indexed-repeat(${migsnhelpmigname},${migsnhelpmigid}, 6)</t>
+  </si>
+  <si>
+    <t>indexed-repeat(${migsnhelpmigname},${migsnhelpmigid}, 7)</t>
   </si>
 </sst>
 </file>
@@ -21344,139 +21344,6 @@
     <cellStyle name="Normal 4" xfId="6" xr:uid="{505C9C05-1215-4337-A4F4-53DBA59C9F3A}"/>
   </cellStyles>
   <dxfs count="630">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFEEB400"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4685D2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="6" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFDCC97A"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFE4E300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE1AAA9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FF9E004F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFBFB00"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -23022,6 +22889,139 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFD44B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEB400"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4685D2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFDCC97A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFE4E300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE1AAA9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF9E004F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFBFB00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -26414,8 +26414,8 @@
   <dimension ref="A1:AD1470"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N287" sqref="N287"/>
+      <pane ySplit="1" topLeftCell="A272" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N285" sqref="N285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="24.6" customHeight="1"/>
@@ -30385,7 +30385,7 @@
         <v>5764</v>
       </c>
       <c r="N279" s="54" t="s">
-        <v>6026</v>
+        <v>6027</v>
       </c>
     </row>
     <row r="280" spans="1:24" ht="24.6" customHeight="1">
@@ -30396,7 +30396,7 @@
         <v>5765</v>
       </c>
       <c r="N280" s="54" t="s">
-        <v>6027</v>
+        <v>6028</v>
       </c>
     </row>
     <row r="281" spans="1:24" ht="24.6" customHeight="1">
@@ -30407,7 +30407,7 @@
         <v>5766</v>
       </c>
       <c r="N281" s="54" t="s">
-        <v>6028</v>
+        <v>6029</v>
       </c>
     </row>
     <row r="282" spans="1:24" ht="24.6" customHeight="1">
@@ -30418,7 +30418,7 @@
         <v>5767</v>
       </c>
       <c r="N282" s="54" t="s">
-        <v>6029</v>
+        <v>6030</v>
       </c>
     </row>
     <row r="283" spans="1:24" ht="24.6" customHeight="1">
@@ -30429,7 +30429,7 @@
         <v>5768</v>
       </c>
       <c r="N283" s="54" t="s">
-        <v>6030</v>
+        <v>6031</v>
       </c>
     </row>
     <row r="284" spans="1:24" ht="24.6" customHeight="1">
@@ -30440,7 +30440,7 @@
         <v>5769</v>
       </c>
       <c r="N284" s="54" t="s">
-        <v>6031</v>
+        <v>6032</v>
       </c>
     </row>
     <row r="285" spans="1:24" ht="24.6" customHeight="1">
@@ -30465,7 +30465,7 @@
         <v>5770</v>
       </c>
       <c r="N286" s="54" t="s">
-        <v>6032</v>
+        <v>6026</v>
       </c>
     </row>
     <row r="287" spans="1:24" ht="24.6" customHeight="1">
@@ -49714,60 +49714,60 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N278:N284">
-    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="225" priority="4" stopIfTrue="1">
       <formula>OR($A278="calculate", $A278="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N278:N284">
-    <cfRule type="expression" dxfId="16" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="224" priority="1" stopIfTrue="1">
       <formula>OR($A278="audio", $A278="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="223" priority="2" stopIfTrue="1">
       <formula>$A278="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="222" priority="3" stopIfTrue="1">
       <formula>OR($A278="date", $A278="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="221" priority="5" stopIfTrue="1">
       <formula>OR($A278="calculate", $A278="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="220" priority="6" stopIfTrue="1">
       <formula>$A278="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="219" priority="7" stopIfTrue="1">
       <formula>$A278="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="218" priority="8" stopIfTrue="1">
       <formula>$A278="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="217" priority="9" stopIfTrue="1">
       <formula>OR($A278="audio audit", $A278="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="216" priority="10" stopIfTrue="1">
       <formula>OR($A278="username", $A278="phonenumber", $A278="start", $A278="end", $A278="deviceid", $A278="subscriberid", $A278="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="215" priority="11" stopIfTrue="1">
       <formula>OR(AND(LEFT($A278, 16)="select_multiple ", LEN($A278)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A278, 17)))), AND(LEFT($A278, 11)="select_one ", LEN($A278)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A278, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="214" priority="12" stopIfTrue="1">
       <formula>$A278="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="213" priority="13" stopIfTrue="1">
       <formula>$A278="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="212" priority="14" stopIfTrue="1">
       <formula>$A278="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="211" priority="15" stopIfTrue="1">
       <formula>$A278="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="210" priority="16" stopIfTrue="1">
       <formula>$A278="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="209" priority="17" stopIfTrue="1">
       <formula>$A278="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="208" priority="18" stopIfTrue="1">
       <formula>$A278="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -51012,174 +51012,174 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:I39 F1:F39 B1:C39">
-    <cfRule type="expression" dxfId="225" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="207" priority="47" stopIfTrue="1">
       <formula>$A1="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I39 O1:O39 B1:C39">
-    <cfRule type="expression" dxfId="224" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="206" priority="44" stopIfTrue="1">
       <formula>$A1="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F39 B1:D39">
-    <cfRule type="expression" dxfId="223" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="205" priority="41" stopIfTrue="1">
       <formula>$A1="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H39 B1:D39">
-    <cfRule type="expression" dxfId="222" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="204" priority="39" stopIfTrue="1">
       <formula>$A1="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1:H39 B1:D39">
-    <cfRule type="expression" dxfId="221" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="203" priority="37" stopIfTrue="1">
       <formula>$A1="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F39 B1:C39">
-    <cfRule type="expression" dxfId="220" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="202" priority="35" stopIfTrue="1">
       <formula>OR(AND(LEFT($A1, 16)="select_multiple ", LEN($A1)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1, 17)))), AND(LEFT($A1, 11)="select_one ", LEN($A1)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F39 B1:B39">
-    <cfRule type="expression" dxfId="219" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="201" priority="32" stopIfTrue="1">
       <formula>OR($A1="audio audit", $A1="text audit")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C39">
-    <cfRule type="expression" dxfId="218" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="200" priority="26" stopIfTrue="1">
       <formula>$A1="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="217" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="199" priority="28" stopIfTrue="1">
       <formula>$A1="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="216" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="198" priority="30" stopIfTrue="1">
       <formula>$A1="geopoint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N39 B1:B39">
-    <cfRule type="expression" dxfId="215" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="197" priority="24" stopIfTrue="1">
       <formula>OR($A1="calculate", $A1="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F39 B1:C39">
-    <cfRule type="expression" dxfId="214" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="196" priority="22" stopIfTrue="1">
       <formula>OR($A1="date", $A1="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F39 B1:C39">
-    <cfRule type="expression" dxfId="213" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="195" priority="20" stopIfTrue="1">
       <formula>$A1="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C39">
-    <cfRule type="expression" dxfId="212" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="194" priority="18" stopIfTrue="1">
       <formula>OR($A1="audio", $A1="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:T39 A2:R2 T2 A1:T1">
-    <cfRule type="expression" dxfId="211" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="193" priority="19" stopIfTrue="1">
       <formula>OR($A1="audio", $A1="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="210" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="192" priority="21" stopIfTrue="1">
       <formula>$A1="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="209" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="191" priority="23" stopIfTrue="1">
       <formula>OR($A1="date", $A1="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="208" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="190" priority="25" stopIfTrue="1">
       <formula>OR($A1="calculate", $A1="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="207" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="189" priority="27" stopIfTrue="1">
       <formula>$A1="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="206" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="188" priority="29" stopIfTrue="1">
       <formula>$A1="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="205" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="187" priority="31" stopIfTrue="1">
       <formula>$A1="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="204" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="186" priority="33" stopIfTrue="1">
       <formula>OR($A1="audio audit", $A1="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="203" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="185" priority="34" stopIfTrue="1">
       <formula>OR($A1="username", $A1="phonenumber", $A1="start", $A1="end", $A1="deviceid", $A1="subscriberid", $A1="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="202" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="184" priority="36" stopIfTrue="1">
       <formula>OR(AND(LEFT($A1, 16)="select_multiple ", LEN($A1)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1, 17)))), AND(LEFT($A1, 11)="select_one ", LEN($A1)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="201" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="183" priority="38" stopIfTrue="1">
       <formula>$A1="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="200" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="182" priority="40" stopIfTrue="1">
       <formula>$A1="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="199" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="181" priority="42" stopIfTrue="1">
       <formula>$A1="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="198" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="180" priority="43" stopIfTrue="1">
       <formula>$A1="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="197" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="179" priority="45" stopIfTrue="1">
       <formula>$A1="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="196" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="178" priority="46" stopIfTrue="1">
       <formula>$A1="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="195" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="177" priority="48" stopIfTrue="1">
       <formula>$A1="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S2">
-    <cfRule type="expression" dxfId="194" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="176" priority="1" stopIfTrue="1">
       <formula>OR($A2="audio", $A2="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="175" priority="2" stopIfTrue="1">
       <formula>$A2="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="192" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="174" priority="3" stopIfTrue="1">
       <formula>OR($A2="date", $A2="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="191" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="173" priority="4" stopIfTrue="1">
       <formula>OR($A2="calculate", $A2="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="172" priority="5" stopIfTrue="1">
       <formula>$A2="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="189" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="171" priority="6" stopIfTrue="1">
       <formula>$A2="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="188" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="170" priority="7" stopIfTrue="1">
       <formula>$A2="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="187" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="169" priority="8" stopIfTrue="1">
       <formula>OR($A2="audio audit", $A2="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="186" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="168" priority="9" stopIfTrue="1">
       <formula>OR($A2="username", $A2="phonenumber", $A2="start", $A2="end", $A2="deviceid", $A2="subscriberid", $A2="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="167" priority="10" stopIfTrue="1">
       <formula>OR(AND(LEFT($A2, 16)="select_multiple ", LEN($A2)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A2, 17)))), AND(LEFT($A2, 11)="select_one ", LEN($A2)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A2, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="184" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="166" priority="11" stopIfTrue="1">
       <formula>$A2="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="183" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="165" priority="12" stopIfTrue="1">
       <formula>$A2="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="164" priority="13" stopIfTrue="1">
       <formula>$A2="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="181" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="163" priority="14" stopIfTrue="1">
       <formula>$A2="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="180" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="162" priority="15" stopIfTrue="1">
       <formula>$A2="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="161" priority="16" stopIfTrue="1">
       <formula>$A2="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="178" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="160" priority="17" stopIfTrue="1">
       <formula>$A2="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -76907,240 +76907,240 @@
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C1140:C1146">
-    <cfRule type="expression" dxfId="177" priority="123" stopIfTrue="1">
+    <cfRule type="expression" dxfId="159" priority="123" stopIfTrue="1">
       <formula>$A1140="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1140:C1146">
-    <cfRule type="expression" dxfId="176" priority="120" stopIfTrue="1">
+    <cfRule type="expression" dxfId="158" priority="120" stopIfTrue="1">
       <formula>$A1140="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1140:C1146">
-    <cfRule type="expression" dxfId="175" priority="117" stopIfTrue="1">
+    <cfRule type="expression" dxfId="157" priority="117" stopIfTrue="1">
       <formula>$A1140="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1140:C1146">
-    <cfRule type="expression" dxfId="174" priority="115" stopIfTrue="1">
+    <cfRule type="expression" dxfId="156" priority="115" stopIfTrue="1">
       <formula>$A1140="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1140:C1146">
-    <cfRule type="expression" dxfId="173" priority="113" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="113" stopIfTrue="1">
       <formula>$A1140="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1140:C1146">
-    <cfRule type="expression" dxfId="172" priority="111" stopIfTrue="1">
+    <cfRule type="expression" dxfId="154" priority="111" stopIfTrue="1">
       <formula>OR(AND(LEFT($A1140, 16)="select_multiple ", LEN($A1140)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1140, 17)))), AND(LEFT($A1140, 11)="select_one ", LEN($A1140)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1140, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1140:C1146">
-    <cfRule type="expression" dxfId="171" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="153" priority="108" stopIfTrue="1">
       <formula>OR($A1140="audio audit", $A1140="text audit")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1140:C1146">
-    <cfRule type="expression" dxfId="170" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="152" priority="102" stopIfTrue="1">
       <formula>$A1140="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="151" priority="104" stopIfTrue="1">
       <formula>$A1140="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="168" priority="106" stopIfTrue="1">
+    <cfRule type="expression" dxfId="150" priority="106" stopIfTrue="1">
       <formula>$A1140="geopoint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1140:C1146">
-    <cfRule type="expression" dxfId="167" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="149" priority="100" stopIfTrue="1">
       <formula>OR($A1140="calculate", $A1140="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1140:C1146">
-    <cfRule type="expression" dxfId="166" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="98" stopIfTrue="1">
       <formula>OR($A1140="date", $A1140="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1140:C1146">
-    <cfRule type="expression" dxfId="165" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="147" priority="96" stopIfTrue="1">
       <formula>$A1140="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1140:C1146">
-    <cfRule type="expression" dxfId="164" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="146" priority="94" stopIfTrue="1">
       <formula>OR($A1140="audio", $A1140="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1140:C1146">
-    <cfRule type="expression" dxfId="163" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="145" priority="95" stopIfTrue="1">
       <formula>OR($A1140="audio", $A1140="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="97" stopIfTrue="1">
       <formula>$A1140="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="143" priority="99" stopIfTrue="1">
       <formula>OR($A1140="date", $A1140="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="160" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="101" stopIfTrue="1">
       <formula>OR($A1140="calculate", $A1140="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="141" priority="103" stopIfTrue="1">
       <formula>$A1140="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="140" priority="105" stopIfTrue="1">
       <formula>$A1140="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="157" priority="107" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="107" stopIfTrue="1">
       <formula>$A1140="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="138" priority="109" stopIfTrue="1">
       <formula>OR($A1140="audio audit", $A1140="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="110" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="110" stopIfTrue="1">
       <formula>OR($A1140="username", $A1140="phonenumber", $A1140="start", $A1140="end", $A1140="deviceid", $A1140="subscriberid", $A1140="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="154" priority="112" stopIfTrue="1">
+    <cfRule type="expression" dxfId="136" priority="112" stopIfTrue="1">
       <formula>OR(AND(LEFT($A1140, 16)="select_multiple ", LEN($A1140)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1140, 17)))), AND(LEFT($A1140, 11)="select_one ", LEN($A1140)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1140, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="114" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="114" stopIfTrue="1">
       <formula>$A1140="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="116" stopIfTrue="1">
+    <cfRule type="expression" dxfId="134" priority="116" stopIfTrue="1">
       <formula>$A1140="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="151" priority="118" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="118" stopIfTrue="1">
       <formula>$A1140="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="119" stopIfTrue="1">
+    <cfRule type="expression" dxfId="132" priority="119" stopIfTrue="1">
       <formula>$A1140="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="121" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="121" stopIfTrue="1">
       <formula>$A1140="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="148" priority="122" stopIfTrue="1">
+    <cfRule type="expression" dxfId="130" priority="122" stopIfTrue="1">
       <formula>$A1140="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="124" stopIfTrue="1">
+    <cfRule type="expression" dxfId="129" priority="124" stopIfTrue="1">
       <formula>$A1140="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1147:C1153">
-    <cfRule type="expression" dxfId="146" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="128" priority="92" stopIfTrue="1">
       <formula>$A1147="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1147:C1153">
-    <cfRule type="expression" dxfId="145" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="127" priority="89" stopIfTrue="1">
       <formula>$A1147="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1147:C1153">
-    <cfRule type="expression" dxfId="144" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="126" priority="86" stopIfTrue="1">
       <formula>$A1147="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1147:C1153">
-    <cfRule type="expression" dxfId="143" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="125" priority="84" stopIfTrue="1">
       <formula>$A1147="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1147:C1153">
-    <cfRule type="expression" dxfId="142" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="124" priority="82" stopIfTrue="1">
       <formula>$A1147="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1147:C1153">
-    <cfRule type="expression" dxfId="141" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="123" priority="80" stopIfTrue="1">
       <formula>OR(AND(LEFT($A1147, 16)="select_multiple ", LEN($A1147)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1147, 17)))), AND(LEFT($A1147, 11)="select_one ", LEN($A1147)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1147, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1147:C1153">
-    <cfRule type="expression" dxfId="140" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="122" priority="77" stopIfTrue="1">
       <formula>OR($A1147="audio audit", $A1147="text audit")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1147:C1153">
-    <cfRule type="expression" dxfId="139" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="121" priority="71" stopIfTrue="1">
       <formula>$A1147="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="120" priority="73" stopIfTrue="1">
       <formula>$A1147="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="119" priority="75" stopIfTrue="1">
       <formula>$A1147="geopoint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1147:C1153">
-    <cfRule type="expression" dxfId="136" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="118" priority="69" stopIfTrue="1">
       <formula>OR($A1147="calculate", $A1147="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1147:C1153">
-    <cfRule type="expression" dxfId="135" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="117" priority="67" stopIfTrue="1">
       <formula>OR($A1147="date", $A1147="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1147:C1153">
-    <cfRule type="expression" dxfId="134" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="116" priority="65" stopIfTrue="1">
       <formula>$A1147="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1147:C1153">
-    <cfRule type="expression" dxfId="133" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="115" priority="63" stopIfTrue="1">
       <formula>OR($A1147="audio", $A1147="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1147:C1153">
-    <cfRule type="expression" dxfId="132" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="114" priority="64" stopIfTrue="1">
       <formula>OR($A1147="audio", $A1147="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="113" priority="66" stopIfTrue="1">
       <formula>$A1147="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="130" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="112" priority="68" stopIfTrue="1">
       <formula>OR($A1147="date", $A1147="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="111" priority="70" stopIfTrue="1">
       <formula>OR($A1147="calculate", $A1147="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="110" priority="72" stopIfTrue="1">
       <formula>$A1147="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="109" priority="74" stopIfTrue="1">
       <formula>$A1147="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="108" priority="76" stopIfTrue="1">
       <formula>$A1147="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="107" priority="78" stopIfTrue="1">
       <formula>OR($A1147="audio audit", $A1147="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="106" priority="79" stopIfTrue="1">
       <formula>OR($A1147="username", $A1147="phonenumber", $A1147="start", $A1147="end", $A1147="deviceid", $A1147="subscriberid", $A1147="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="105" priority="81" stopIfTrue="1">
       <formula>OR(AND(LEFT($A1147, 16)="select_multiple ", LEN($A1147)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A1147, 17)))), AND(LEFT($A1147, 11)="select_one ", LEN($A1147)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A1147, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="104" priority="83" stopIfTrue="1">
       <formula>$A1147="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="103" priority="85" stopIfTrue="1">
       <formula>$A1147="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="102" priority="87" stopIfTrue="1">
       <formula>$A1147="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="101" priority="88" stopIfTrue="1">
       <formula>$A1147="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="100" priority="90" stopIfTrue="1">
       <formula>$A1147="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="99" priority="91" stopIfTrue="1">
       <formula>$A1147="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="98" priority="93" stopIfTrue="1">
       <formula>$A1147="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -80842,348 +80842,348 @@
     <mergeCell ref="A78:B78"/>
   </mergeCells>
   <conditionalFormatting sqref="B5:C5 H5 L5">
-    <cfRule type="expression" dxfId="115" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="97" priority="97" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 L5 S5">
-    <cfRule type="expression" dxfId="114" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="96" priority="94" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5 B5:F5">
-    <cfRule type="expression" dxfId="113" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="95" priority="91" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J5 B5:F5">
-    <cfRule type="expression" dxfId="112" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="94" priority="89" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5:J5 B5:F5">
-    <cfRule type="expression" dxfId="111" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="93" priority="87" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 H5">
-    <cfRule type="expression" dxfId="110" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="92" priority="85" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5 H5">
-    <cfRule type="expression" dxfId="109" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="91" priority="82" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="expression" dxfId="108" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="90" priority="76" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="89" priority="78" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="80" stopIfTrue="1">
+    <cfRule type="expression" dxfId="88" priority="80" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5 R5">
-    <cfRule type="expression" dxfId="105" priority="74" stopIfTrue="1">
+    <cfRule type="expression" dxfId="87" priority="74" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 H5">
-    <cfRule type="expression" dxfId="104" priority="72" stopIfTrue="1">
+    <cfRule type="expression" dxfId="86" priority="72" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5 H5">
-    <cfRule type="expression" dxfId="103" priority="70" stopIfTrue="1">
+    <cfRule type="expression" dxfId="85" priority="70" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="expression" dxfId="102" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="84" priority="68" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:J5 L5:O5 Q5:S5 W5:AD5">
-    <cfRule type="expression" dxfId="101" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="83" priority="67" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="82" priority="69" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="81" priority="71" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="73" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="73" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="75" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="77" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="77" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="79" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="79" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="81" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="81" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="83" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="84" stopIfTrue="1">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="86" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="88" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="90" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="92" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="93" stopIfTrue="1">
       <formula>$A5="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="86" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="95" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="96" stopIfTrue="1">
       <formula>$A5="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="98" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="expression" dxfId="83" priority="66" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="66" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T5:V5">
-    <cfRule type="expression" dxfId="82" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="48" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="49" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="49" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="50" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="50" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="51" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="52" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="52" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="53" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="53" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="54" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="55" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="56" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="57" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="57" stopIfTrue="1">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="58" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="59" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="60" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="60" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="61" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="61" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="62" stopIfTrue="1">
       <formula>$A5="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="63" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="64" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="64" stopIfTrue="1">
       <formula>$A5="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="65" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="65" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="64" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="47" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="63" priority="46" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="46" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="62" priority="45" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="45" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="61" priority="42" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="42" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="43" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="44" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="44" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="58" priority="41" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="41" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="57" priority="40" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="40" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="56" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="39" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="55" priority="32" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="32" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="54" priority="30" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="30" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="expression" dxfId="53" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="19" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="20" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="21" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="22" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="23" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="24" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="25" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="25" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="26" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="26" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="27" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="28" stopIfTrue="1">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="29" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="29" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="31" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="33" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="33" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="34" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="34" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="35" stopIfTrue="1">
       <formula>$A5="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="36" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="36" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="37" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="37" stopIfTrue="1">
       <formula>$A5="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="38" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P5">
-    <cfRule type="expression" dxfId="35" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
       <formula>$A5="comments"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
       <formula>OR($A5="audio", $A5="video")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
       <formula>$A5="image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
       <formula>OR($A5="date", $A5="datetime")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
       <formula>OR($A5="calculate", $A5="calculate_here")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
       <formula>$A5="note"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
       <formula>$A5="barcode"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
       <formula>$A5="geopoint"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>OR($A5="audio audit", $A5="text audit")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
       <formula>OR($A5="phonenumber", $A5="start", $A5="end", $A5="deviceid", $A5="subscriberid", $A5="simserial")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
       <formula>OR(AND(LEFT($A5, 16)="select_multiple ", LEN($A5)&gt;16, NOT(ISNUMBER(SEARCH(" ", $A5, 17)))), AND(LEFT($A5, 11)="select_one ", LEN($A5)&gt;11, NOT(ISNUMBER(SEARCH(" ", $A5, 12)))))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
       <formula>$A5="decimal"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="13" stopIfTrue="1">
       <formula>$A5="integer"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="14" stopIfTrue="1">
       <formula>$A5="text"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="15" stopIfTrue="1">
       <formula>$A5="end repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="16" stopIfTrue="1">
       <formula>$A5="begin repeat"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="17" stopIfTrue="1">
       <formula>$A5="end group"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="18" stopIfTrue="1">
       <formula>$A5="begin group"</formula>
     </cfRule>
   </conditionalFormatting>
